--- a/biology/Médecine/Alisporivir/Alisporivir.xlsx
+++ b/biology/Médecine/Alisporivir/Alisporivir.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L'alisporivir, ou alispovir, ou Debio 025, DEB025, (ou UNIL-025) est un inhibiteur de la cyclophiline A[2],[3]. Sa structure rappelle celle de la ciclosporine, à partir de laquelle il est synthétisé.
-Il fait l'objet de recherches pour son utilisation potentielle dans le traitement de l'hépatite C[4],[5]. Il a également été étudié pour la dystrophie musculaire de Duchenne[3] et pourrait avoir un potentiel thérapeutique dans la maladie d'Alzheimer[6]. Il a aussi été envisagé comme traitement contre le SARS-CoV-2[7].
+L'alisporivir, ou alispovir, ou Debio 025, DEB025, (ou UNIL-025) est un inhibiteur de la cyclophiline A,. Sa structure rappelle celle de la ciclosporine, à partir de laquelle il est synthétisé.
+Il fait l'objet de recherches pour son utilisation potentielle dans le traitement de l'hépatite C,. Il a également été étudié pour la dystrophie musculaire de Duchenne et pourrait avoir un potentiel thérapeutique dans la maladie d'Alzheimer. Il a aussi été envisagé comme traitement contre le SARS-CoV-2.
 </t>
         </is>
       </c>
